--- a/DoorDashRequestsTemplate.xlsx
+++ b/DoorDashRequestsTemplate.xlsx
@@ -25,7 +25,7 @@
     <t xml:space="preserve">Names</t>
   </si>
   <si>
-    <t xml:space="preserve">Austin</t>
+    <t xml:space="preserve">Tracey</t>
   </si>
   <si>
     <t xml:space="preserve">Ian</t>
@@ -37,7 +37,7 @@
     <t xml:space="preserve">Steve</t>
   </si>
   <si>
-    <t xml:space="preserve">Rod</t>
+    <t xml:space="preserve">David</t>
   </si>
   <si>
     <t xml:space="preserve">Amount</t>
@@ -285,16 +285,16 @@
   </sheetPr>
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L4" activeCellId="0" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.9540816326531"/>
-    <col collapsed="false" hidden="false" max="9" min="2" style="0" width="11.7704081632653"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="15.5510204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="11.7704081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="9" min="2" style="0" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="15.765306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="11.8775510204082"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -405,7 +405,7 @@
         <v>0.07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0</v>
+        <v>0.07</v>
       </c>
       <c r="E5" s="2" t="n">
         <v>0.07</v>
@@ -515,7 +515,7 @@
         <v>0</v>
       </c>
       <c r="D9" s="2" t="n">
-        <f aca="false">IF(D2&gt;0 ,M21, 0)</f>
+        <f aca="false">IF(D2&gt;0 ,K21, 0)</f>
         <v>0</v>
       </c>
       <c r="E9" s="2" t="n">
